--- a/data/trans_bre/P3A_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.1406636304738015</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.026888566909504</v>
+        <v>4.026888566909505</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7982717299384433</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2468300637095314</v>
+        <v>-0.4049498339562118</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.002415421560725</v>
+        <v>0.9853106783969887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.828827044360926</v>
+        <v>-0.9143372884837839</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.009863468397471</v>
+        <v>2.168814391098822</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1648384462372084</v>
+        <v>-0.2550886790336984</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4317764552463785</v>
+        <v>0.4911671627494967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.443252204908154</v>
+        <v>-0.459457489621364</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4089648338917626</v>
+        <v>0.5273831681410507</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.692474185378041</v>
+        <v>2.436928104392621</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.712036602291811</v>
+        <v>3.736489714396327</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.308014385806589</v>
+        <v>1.195454122763973</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.104647531699293</v>
+        <v>5.973344517056952</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.585946308759312</v>
+        <v>3.084169003187201</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.782283864818284</v>
+        <v>4.293708188855655</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.360228132389731</v>
+        <v>1.162953329155979</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.066173421092288</v>
+        <v>3.114024036990505</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.524750367072458</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.636690354228161</v>
+        <v>1.63669035422816</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02159063153642602</v>
@@ -749,7 +749,7 @@
         <v>0.3410332442878827</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5412184244458005</v>
+        <v>0.5412184244458002</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.9380434181461805</v>
+        <v>-0.9627772931200996</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.8584019469995443</v>
+        <v>-0.6859307929635277</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6805594032833082</v>
+        <v>-0.6917356086582627</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2801823462998111</v>
+        <v>0.1723449401893405</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4905188195857188</v>
+        <v>-0.4946201398506724</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.273485642395194</v>
+        <v>-0.2228945314677213</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3996978769062897</v>
+        <v>-0.392957090043062</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06162457308410701</v>
+        <v>0.03863624859002679</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.201426490627491</v>
+        <v>1.259579205016542</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.259248128501169</v>
+        <v>2.392750839985359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.859064368057204</v>
+        <v>1.923493202287397</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.961456136545394</v>
+        <v>2.899531990661208</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.230284106853668</v>
+        <v>1.196993369314813</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.104132161924844</v>
+        <v>1.220588595228951</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.70288973821913</v>
+        <v>1.771411841102668</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.254474253448284</v>
+        <v>1.243649350468372</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.5402922787460394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3537465841511794</v>
+        <v>0.3537465841511801</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3677539763202589</v>
@@ -849,7 +849,7 @@
         <v>0.1566953729583587</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.07839176135859956</v>
+        <v>0.0783917613585997</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.165937592420624</v>
+        <v>-3.31432395159939</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.338011144077769</v>
+        <v>-3.523106357965138</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.426601065092236</v>
+        <v>-1.371647050873736</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.605024012473368</v>
+        <v>-1.392482415661338</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6129942896482867</v>
+        <v>-0.6358426899545206</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5142580513274249</v>
+        <v>-0.5345606833503228</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3388642959617277</v>
+        <v>-0.3180643865384528</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2852375046653481</v>
+        <v>-0.2491336404341201</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0008334403177157163</v>
+        <v>0.01947185463774295</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6820437341774582</v>
+        <v>0.6576421569952183</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.673962902089312</v>
+        <v>2.592315605128371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.025116801515123</v>
+        <v>1.915789986552355</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03325658481581111</v>
+        <v>0.02280595918604509</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1683101472402554</v>
+        <v>0.1563481975647639</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.115374289875216</v>
+        <v>0.9845481407556703</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6017225572750234</v>
+        <v>0.5433827975907098</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.239465738852567</v>
+        <v>-6.464912010621283</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.404519714461015</v>
+        <v>-0.9931377295558048</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.4973499447387166</v>
+        <v>-0.3965156873414992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.480579945807496</v>
+        <v>-1.852085866602844</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4380390883078348</v>
+        <v>-0.4501543422835579</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1469032999491218</v>
+        <v>-0.1148027754063268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08561005715909106</v>
+        <v>-0.1089626622757554</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1941415430305904</v>
+        <v>-0.2191085694769687</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.882647125420682</v>
+        <v>3.01293665702199</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.990021072343786</v>
+        <v>6.776936018445526</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.933400897219722</v>
+        <v>5.89952192366873</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.892275078929661</v>
+        <v>2.838722416907029</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2960264370047065</v>
+        <v>0.3341976173290523</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.269953172443101</v>
+        <v>1.197203317846988</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.672735608171086</v>
+        <v>1.757489044807966</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5132450746813592</v>
+        <v>0.5253415871133298</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.5893418510610621</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.275591584873784</v>
+        <v>1.275591584873786</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2022399347863426</v>
@@ -1049,7 +1049,7 @@
         <v>0.2408964606367885</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2843510827377075</v>
+        <v>0.284351082737708</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.693540619484826</v>
+        <v>-1.76810953369624</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1953624259961856</v>
+        <v>-0.1282836619026609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2337997421600779</v>
+        <v>-0.3360329702814482</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3477518519186826</v>
+        <v>0.3666407268737191</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3861336807538179</v>
+        <v>-0.3992077031311565</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.03967681532891398</v>
+        <v>-0.02900568360472271</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1051001733858693</v>
+        <v>-0.1083918450812655</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.06335349145197215</v>
+        <v>0.07311266541806255</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06320404538526016</v>
+        <v>0.1067056370093027</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.855518636569632</v>
+        <v>1.889649410549713</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.374611587245464</v>
+        <v>1.472031224401376</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.168693873437011</v>
+        <v>2.177613569524881</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.01841232322793171</v>
+        <v>0.03256601371189272</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5676878223318594</v>
+        <v>0.5944000984832613</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6515637308998427</v>
+        <v>0.7194947466208225</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5445367147214389</v>
+        <v>0.5453532156422538</v>
       </c>
     </row>
     <row r="19">
